--- a/test-unitaire/TabUnitaires.xlsx
+++ b/test-unitaire/TabUnitaires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\P5_Matthieu_Boistard\test-unitaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC264C1C-31A6-4EC2-8BBE-AAA879CFEC3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9346B80-A6AA-4ECD-B711-C532AE6119CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="4440" windowWidth="38700" windowHeight="15555" xr2:uid="{78926670-7B08-4F84-A89B-A62A4D0153D5}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="51840" windowHeight="21390" xr2:uid="{78926670-7B08-4F84-A89B-A62A4D0153D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>FICHIER JS</t>
   </si>
@@ -380,13 +380,28 @@
   </si>
   <si>
     <t xml:space="preserve">Mauvaises données affichées ou absence d'affichage </t>
+  </si>
+  <si>
+    <t>XMLhttprequest</t>
+  </si>
+  <si>
+    <t>créer un fausse API pour pouvoir tester le comportement de la request</t>
+  </si>
+  <si>
+    <t>doit appeler une API et recevoir un object</t>
+  </si>
+  <si>
+    <t>mauvaise route, mauvaise config, mauvaise demande, mauvaise methode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceuil-list.js  / Page-produit.JS / Panier.js  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +411,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -427,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,13 +460,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -761,15 +789,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A42243B-8CBF-4537-8364-D56AAD106C07}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
     <col min="3" max="6" width="37.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" customWidth="1"/>
@@ -779,24 +807,24 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -816,7 +844,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -836,7 +864,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -856,7 +884,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -876,7 +904,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -896,7 +924,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -916,7 +944,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -936,7 +964,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -956,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -976,7 +1004,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -996,7 +1024,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1016,7 +1044,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1036,7 +1064,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1056,7 +1084,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1076,7 +1104,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1096,7 +1124,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1116,7 +1144,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1136,7 +1164,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1178,7 +1206,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1198,7 +1226,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1218,7 +1246,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1235,6 +1263,24 @@
       </c>
       <c r="F24" s="2" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
